--- a/biology/Médecine/Tumeur_de_Klatskin/Tumeur_de_Klatskin.xlsx
+++ b/biology/Médecine/Tumeur_de_Klatskin/Tumeur_de_Klatskin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tumeur de Klatskin, ou cancer du hile du foie, est un cholangiocarcinome qui se développe au niveau de la convergence des canaux hépatiques gauche et droit[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tumeur de Klatskin, ou cancer du hile du foie, est un cholangiocarcinome qui se développe au niveau de la convergence des canaux hépatiques gauche et droit.
 Il y a progressivement obstruction des canaux hépatiques gauche, droit et commun avec développement d'un ictère. L'envahissement de voisinage se fait dans les segments hépatiques proches du hile comme le IV, le III et le V.
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Principalement, souvent uniquement les symptômes de cholestase: ictère, prurit, décoloration des selles et urines foncées
 Gêne épigastrique et hépatomégalie
@@ -544,7 +558,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Biologie : cholestase, CA 19.9
 Echographie : voies biliaires intrahépatiques dilatées, voies biliaires extrahépatiques non dilatées
@@ -577,7 +593,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cholangite sclérosante et cancer de l'infundibulum de la vésicule biliaire.
 </t>
@@ -609,6 +627,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
